--- a/api-mapping.xlsx
+++ b/api-mapping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\EppLoad\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\easysix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21F49509-8DA9-435E-9F6C-87805392E7B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{635C2E97-D18E-4D28-B1FB-B01CBD62A32C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="23640" xr2:uid="{4D5A77EA-79A3-4D58-8216-51A32A05CB26}"/>
+    <workbookView xWindow="10470" yWindow="3885" windowWidth="43200" windowHeight="17145" xr2:uid="{4D5A77EA-79A3-4D58-8216-51A32A05CB26}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="41">
   <si>
     <t>CONTACTCREATE</t>
   </si>
@@ -107,24 +107,12 @@
     <t>DELETE</t>
   </si>
   <si>
-    <t>Column1</t>
-  </si>
-  <si>
     <t>/contact/</t>
   </si>
   <si>
     <t>/domain/</t>
   </si>
   <si>
-    <t>/domain/transfer/</t>
-  </si>
-  <si>
-    <t>/domain/renew/</t>
-  </si>
-  <si>
-    <t>/domain/transferquery/</t>
-  </si>
-  <si>
     <t>/host/</t>
   </si>
   <si>
@@ -153,6 +141,24 @@
   </si>
   <si>
     <t>HostObject</t>
+  </si>
+  <si>
+    <t>Command</t>
+  </si>
+  <si>
+    <t>AuthInfo</t>
+  </si>
+  <si>
+    <t>/domain/transfer/[name]</t>
+  </si>
+  <si>
+    <t>/domain/renew/[name]</t>
+  </si>
+  <si>
+    <t>RenewPeriod</t>
+  </si>
+  <si>
+    <t>/domain/querytransfer/[name]</t>
   </si>
 </sst>
 </file>
@@ -226,7 +232,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8D300914-587A-413B-962A-A40D854D070F}" name="Table1" displayName="Table1" ref="A1:E18" totalsRowShown="0" headerRowDxfId="0">
   <autoFilter ref="A1:E18" xr:uid="{8D300914-587A-413B-962A-A40D854D070F}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{80495FE5-3423-4EF7-877A-BD59ED3B7688}" name="Column1"/>
+    <tableColumn id="1" xr3:uid="{80495FE5-3423-4EF7-877A-BD59ED3B7688}" name="Command"/>
     <tableColumn id="2" xr3:uid="{5318D8C8-4F29-42E1-8F90-0EB93025A023}" name="HTTP method"/>
     <tableColumn id="3" xr3:uid="{C56EE21B-3B2C-4138-9561-FC78C1FAE981}" name="URI"/>
     <tableColumn id="4" xr3:uid="{B9268023-BFE9-4D38-8BF0-478CB014374E}" name="Request Body"/>
@@ -237,9 +243,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -277,7 +283,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -383,7 +389,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -525,7 +531,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -536,7 +542,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="B13" sqref="B13:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,7 +556,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>17</v>
@@ -559,10 +565,10 @@
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -573,10 +579,10 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -587,10 +593,10 @@
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -601,10 +607,10 @@
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -615,7 +621,7 @@
         <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -626,10 +632,10 @@
         <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -640,10 +646,10 @@
         <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -654,10 +660,10 @@
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -668,7 +674,7 @@
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -679,7 +685,7 @@
         <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -690,10 +696,10 @@
         <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -701,13 +707,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -718,10 +724,10 @@
         <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D13" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -732,10 +738,10 @@
         <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -746,10 +752,10 @@
         <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E15" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -760,10 +766,10 @@
         <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -774,7 +780,7 @@
         <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -785,7 +791,7 @@
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
